--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Conversion PN13 vers FHIR pour la ligne de prescrption d'une prescription de médicaments</t>
+    <t>Conversion PN13 vers FHIR pour la ligne de prescription d'une prescription de médicaments</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -9,12 +9,15 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
+    <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
+    <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,13 +127,97 @@
     <t>MedicationRequest.identifier.system</t>
   </si>
   <si>
-    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Type_élément_prescr</t>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Libellé_élément_prescr</t>
+  </si>
+  <si>
+    <t>MedicationRequest.text</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Urgent</t>
+  </si>
+  <si>
+    <t>MedicationRequest.priority</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Voie_administration</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.code</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Lieu_administration</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.performer.display</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dispositif_associé</t>
+  </si>
+  <si>
+    <t>MedicationRequest.supportingInformation.display</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.text</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Identifiant</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.identifier.value</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Domaine_identification</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.identifier.system</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Nom_usage</t>
   </si>
   <si>
     <t>related-to</t>
   </si>
   <si>
-    <t>MedicationRequest.medicationReference.reference</t>
+    <t>MedicationRequest.note.authorReference.display</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Prénom_usage</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Initiales</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Civilité</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Titre</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Nom_famille</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Prénoms</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Texte</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/GoNogo</t>
+  </si>
+  <si>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Motif_attente</t>
+  </si>
+  <si>
+    <t>MedicationRequest.statusReason.text</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Conditions_application</t>
   </si>
 </sst>
 </file>
@@ -472,6 +559,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -510,16 +731,323 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T15:16:58+00:00</t>
+    <t>2024-12-26T13:24:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/FrInpatientMedicationRequest</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Display</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -12,12 +12,23 @@
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
     <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
     <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
+    <sheet name="Mapping Table 6" r:id="rId10" sheetId="8"/>
+    <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
+    <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
+    <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
+    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
+    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
+    <sheet name="Mapping Table 12" r:id="rId16" sheetId="14"/>
+    <sheet name="Mapping Table 13" r:id="rId17" sheetId="15"/>
+    <sheet name="Mapping Table 14" r:id="rId18" sheetId="16"/>
+    <sheet name="Mapping Table 15" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,39 +123,132 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>Messages@Phast-id_message</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>MedicationRequest.groupIdentifier.value</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Dh_prescription</t>
+  </si>
+  <si>
+    <t>MedicationRequest.authoredOn</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Unité_hébergement</t>
+  </si>
+  <si>
+    <t>MedicationRequest.supportingInformation.identifier</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Unité_resp_médicale</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.text</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Identifiant</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.identifier.value</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Domaine_identification</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.identifier.system</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Nom_usage</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.display</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Prénom_usage</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Initiales</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Civilité</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Titre</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Nom_famille</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Prénoms</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Texte</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Rens_compl</t>
+  </si>
+  <si>
+    <t>MedicationRequest.supportingInformation.reference</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Rens_compl/Valeur_rens_compl</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_élément_prescr</t>
   </si>
   <si>
-    <t>equivalent</t>
-  </si>
-  <si>
     <t>MedicationRequest.identifier.value</t>
   </si>
   <si>
-    <t>Messages@Phast-id_message</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.system</t>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Forme</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationReference.reference</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Libellé_élément_prescr</t>
   </si>
   <si>
-    <t>MedicationRequest.text</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Urgent</t>
   </si>
   <si>
     <t>MedicationRequest.priority</t>
   </si>
   <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Fourniture</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].extension.valueBoolean</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_prescripteur</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Identification_prescripteur</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Voie_administration</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.code</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.route.text</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Lieu_administration</t>
   </si>
   <si>
@@ -157,33 +261,45 @@
     <t>MedicationRequest.supportingInformation.display</t>
   </si>
   <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Posologie</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_début_prescrite</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.boundsPeriod.start</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_début</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_fin_prescrite</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.boundsPeriod.end</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_fin</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Indication</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire</t>
   </si>
   <si>
-    <t>MedicationRequest.note.text</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Identifiant</t>
   </si>
   <si>
-    <t>MedicationRequest.note.authorReference.identifier.value</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Domaine_identification</t>
   </si>
   <si>
-    <t>MedicationRequest.note.authorReference.identifier.system</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Nom_usage</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
-    <t>MedicationRequest.note.authorReference.display</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Prénom_usage</t>
   </si>
   <si>
@@ -218,6 +334,33 @@
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Conditions_application</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationReference</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Elément_posologie</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Non_substituable</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowedBoolean</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Référent_poso</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.extension($fr-basis-of-dose-component).valueReference</t>
   </si>
 </sst>
 </file>
@@ -488,7 +631,386 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -528,27 +1050,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -557,141 +1079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -731,14 +1119,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -747,9 +1135,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -785,144 +1173,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,14 +1218,532 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>108</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -980,74 +1756,381 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -39,7 +39,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ConceptMap/PN13-FHIR-prescmed-medicationrequest-conceptmap</t>
+    <t>https://hl7.fr/ig/fhir/medication/ConceptMap/PN13-FHIR-prescmed-medicationrequest-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Display</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,37 +90,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'une ligne de prescription d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'une ligne de prescription d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Messages@Phast-id_message</t>
@@ -659,26 +662,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -715,156 +718,156 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -901,26 +904,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -928,10 +931,10 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -939,10 +942,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -950,10 +953,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -961,10 +964,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -972,36 +975,36 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1038,39 +1041,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1107,26 +1110,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1163,14 +1166,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1206,26 +1209,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1262,26 +1265,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1318,65 +1321,65 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1413,156 +1416,156 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1599,39 +1602,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1668,26 +1671,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1724,117 +1727,117 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1871,65 +1874,65 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1966,52 +1969,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2048,87 +2051,87 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -231,7 +231,10 @@
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Fourniture</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x].extension.valueBoolean</t>
+    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_prescripteur</t>
@@ -267,13 +270,13 @@
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Posologie</t>
   </si>
   <si>
+    <t>MedicationRequest.extension.valueMarkdown</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_début_prescrite</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.boundsPeriod.start</t>
-  </si>
-  <si>
-    <t>not-related-to</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_début</t>
@@ -674,7 +677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -730,7 +733,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -743,7 +746,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -756,7 +759,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -769,7 +772,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -782,7 +785,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -795,7 +798,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -808,7 +811,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -821,7 +824,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -834,7 +837,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -847,7 +850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -860,7 +863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -916,14 +919,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -934,7 +937,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -945,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -956,7 +959,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -967,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -978,26 +981,26 @@
         <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1053,27 +1056,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1122,14 +1125,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1221,14 +1224,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1277,14 +1280,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1701,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1817,29 +1820,55 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1886,53 +1915,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1981,40 +2010,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2063,75 +2092,75 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
